--- a/biology/Botanique/Ferraria_densepunctulata/Ferraria_densepunctulata.xlsx
+++ b/biology/Botanique/Ferraria_densepunctulata/Ferraria_densepunctulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ferraria densepunctulata est une espèce de plantes à fleurs du genre Ferraria et de la famille des Iridaceae. C'est une plante vivace et géophyte. L'espèce est endémique du Cap occidental en Afrique du Sud, elle  est présente de la  baie de Lambert (en) à Langebaan (en). Il existe six à huit sous-populations, dont la plus importante se trouve à Jacobs Bay (en). L'espèce est menacée par le développement périurbain, l'agriculture et l'exploitation minière (extraction de calcaire).
